--- a/experiments/TDvsBU_W_varried_n.xlsx
+++ b/experiments/TDvsBU_W_varried_n.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaganmohan/Academics/Autumn 2018/Algorithm Design/Empirical Project/knapsack/experiments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D790625-649A-9D4F-9C43-F2F08880BE9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33CDB7B5-CF0B-A644-AD74-0CEA6986E392}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDvsBU_W_varried_n" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -869,6 +869,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n (no of items) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -931,6 +986,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (in ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1344,6 +1454,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n (no of items)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1406,6 +1571,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1819,6 +2044,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n (no</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> of items)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1881,6 +2166,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0%"/>
+                  <a:t> ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2299,6 +2644,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n (no of items)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2361,6 +2761,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65%"/>
+                        <a:lumOff val="35%"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime (in ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0%">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65%"/>
+                      <a:lumOff val="35%"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5154,11 +5609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D25"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
